--- a/biology/Zoologie/Carteronius/Carteronius.xlsx
+++ b/biology/Zoologie/Carteronius/Carteronius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carteronius est un genre d'araignées aranéomorphes de la famille des Corinnidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carteronius est un genre d'araignées aranéomorphes de la famille des Corinnidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique équatoriale et en Afrique de l'Ouest[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique équatoriale et en Afrique de l'Ouest.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 19/11/2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 19/11/2022) :
 Carteronius arboreus Bonaldo &amp; Haddad, 2022
 Carteronius ashanti Bonaldo &amp; Silva-Junior, 2022
 Carteronius gentilis (Simon, 1909)
@@ -580,10 +596,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Simon en 1896 dans les Clubionidae. Il est placé dans les Corinnidae par Bonaldo, Bosselaers, Ramírez, Labarque, Shimano, Silva-Junior et Haddad en 2022[2].
-Mandane[3] Karsch, 1880, préoccupé par Mandane Kinberg, 1865, remplacé par Mandaneta par Strand en 1932[4], a été placé en synonymie par Bonaldo, Bosselaers, Ramírez, Labarque, Shimano, Silva-Junior et Haddad en 2022[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Simon en 1896 dans les Clubionidae. Il est placé dans les Corinnidae par Bonaldo, Bosselaers, Ramírez, Labarque, Shimano, Silva-Junior et Haddad en 2022.
+Mandane Karsch, 1880, préoccupé par Mandane Kinberg, 1865, remplacé par Mandaneta par Strand en 1932, a été placé en synonymie par Bonaldo, Bosselaers, Ramírez, Labarque, Shimano, Silva-Junior et Haddad en 2022.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1896 : « Descriptions d'arachnides nouveaux de la famille des Clubionidae. » Annales de la Société Entomologique de Belgique, vol. 40, p. 400-422 (texte intégral).</t>
         </is>
